--- a/MainTop/05.09.2025 Таня Озон/05.09.2025 Таня Озон extra.xlsx
+++ b/MainTop/05.09.2025 Таня Озон/05.09.2025 Таня Озон extra.xlsx
@@ -5,33 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\05.09.2025 Таня Озон\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\05.09.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F34E612-6A0F-4F97-B416-5B519182D20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916A1642-6087-4E2A-ACDA-28BE47CF80F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>Артикул</t>
   </si>
@@ -304,6 +293,9 @@
   </si>
   <si>
     <t>05.09.2025 Таня Озон extra</t>
+  </si>
+  <si>
+    <t>питер</t>
   </si>
 </sst>
 </file>
@@ -674,19 +666,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,13 +692,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -716,12 +711,12 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -731,12 +726,12 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -746,12 +741,12 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -761,7 +756,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -776,7 +771,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -791,7 +786,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -806,7 +801,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -821,7 +816,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -836,7 +831,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -851,7 +846,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -866,7 +861,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -881,7 +876,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -896,7 +891,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -911,7 +906,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -976,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
@@ -991,7 +986,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
@@ -1335,8 +1330,8 @@
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="3">
-        <v>4</v>
+      <c r="B44">
+        <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>5</v>
@@ -1350,8 +1345,8 @@
       <c r="A45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="3">
-        <v>4</v>
+      <c r="B45">
+        <v>2</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>5</v>
@@ -1365,8 +1360,8 @@
       <c r="A46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="3">
-        <v>4</v>
+      <c r="B46">
+        <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>5</v>
@@ -1380,8 +1375,8 @@
       <c r="A47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="3">
-        <v>4</v>
+      <c r="B47">
+        <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>5</v>
@@ -1395,8 +1390,8 @@
       <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="3">
-        <v>4</v>
+      <c r="B48">
+        <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>5</v>
@@ -1410,8 +1405,8 @@
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="3">
-        <v>4</v>
+      <c r="B49">
+        <v>2</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>5</v>
@@ -1425,8 +1420,8 @@
       <c r="A50" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="3">
-        <v>4</v>
+      <c r="B50">
+        <v>2</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>5</v>
@@ -1440,8 +1435,8 @@
       <c r="A51" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="3">
-        <v>4</v>
+      <c r="B51">
+        <v>2</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>5</v>
@@ -1455,8 +1450,8 @@
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="3">
-        <v>4</v>
+      <c r="B52">
+        <v>2</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>5</v>
@@ -1470,8 +1465,8 @@
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="3">
-        <v>4</v>
+      <c r="B53">
+        <v>2</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>5</v>
@@ -1485,8 +1480,8 @@
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="3">
-        <v>4</v>
+      <c r="B54">
+        <v>2</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>5</v>
@@ -1500,8 +1495,8 @@
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="3">
-        <v>4</v>
+      <c r="B55">
+        <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>5</v>
@@ -1515,8 +1510,8 @@
       <c r="A56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="3">
-        <v>4</v>
+      <c r="B56">
+        <v>2</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>5</v>
@@ -1530,8 +1525,8 @@
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="3">
-        <v>4</v>
+      <c r="B57">
+        <v>2</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>5</v>
@@ -1545,8 +1540,8 @@
       <c r="A58" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="3">
-        <v>2</v>
+      <c r="B58">
+        <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>5</v>
@@ -1560,8 +1555,8 @@
       <c r="A59" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="3">
-        <v>2</v>
+      <c r="B59">
+        <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>5</v>
@@ -1575,8 +1570,8 @@
       <c r="A60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="3">
-        <v>2</v>
+      <c r="B60">
+        <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>5</v>
@@ -1590,8 +1585,8 @@
       <c r="A61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="3">
-        <v>2</v>
+      <c r="B61">
+        <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>5</v>
@@ -1605,8 +1600,8 @@
       <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="3">
-        <v>2</v>
+      <c r="B62">
+        <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
@@ -1620,8 +1615,8 @@
       <c r="A63" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="3">
-        <v>2</v>
+      <c r="B63">
+        <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
@@ -1635,8 +1630,8 @@
       <c r="A64" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="3">
-        <v>2</v>
+      <c r="B64">
+        <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
@@ -1650,8 +1645,8 @@
       <c r="A65" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="3">
-        <v>2</v>
+      <c r="B65">
+        <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
@@ -1665,8 +1660,8 @@
       <c r="A66" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="3">
-        <v>2</v>
+      <c r="B66">
+        <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
@@ -1680,8 +1675,8 @@
       <c r="A67" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="3">
-        <v>2</v>
+      <c r="B67">
+        <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>5</v>
@@ -1695,8 +1690,8 @@
       <c r="A68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="3">
-        <v>2</v>
+      <c r="B68">
+        <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>5</v>
@@ -1710,8 +1705,8 @@
       <c r="A69" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="3">
-        <v>2</v>
+      <c r="B69">
+        <v>1</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>5</v>
@@ -1725,8 +1720,8 @@
       <c r="A70" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="3">
-        <v>2</v>
+      <c r="B70">
+        <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>5</v>
@@ -1740,8 +1735,8 @@
       <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="3">
-        <v>2</v>
+      <c r="B71">
+        <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>5</v>
@@ -1755,8 +1750,8 @@
       <c r="A72" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="3">
-        <v>2</v>
+      <c r="B72">
+        <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>5</v>
@@ -1770,8 +1765,8 @@
       <c r="A73" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="3">
-        <v>2</v>
+      <c r="B73">
+        <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>5</v>
@@ -1785,8 +1780,8 @@
       <c r="A74" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="3">
-        <v>2</v>
+      <c r="B74">
+        <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>5</v>
@@ -1800,8 +1795,8 @@
       <c r="A75" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="3">
-        <v>2</v>
+      <c r="B75">
+        <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>5</v>
@@ -1815,8 +1810,8 @@
       <c r="A76" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="3">
-        <v>2</v>
+      <c r="B76">
+        <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>5</v>
@@ -1830,8 +1825,8 @@
       <c r="A77" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="3">
-        <v>2</v>
+      <c r="B77">
+        <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>5</v>
@@ -1845,8 +1840,8 @@
       <c r="A78" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="3">
-        <v>2</v>
+      <c r="B78">
+        <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>5</v>
@@ -1860,8 +1855,8 @@
       <c r="A79" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="3">
-        <v>2</v>
+      <c r="B79">
+        <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>5</v>
@@ -1875,8 +1870,8 @@
       <c r="A80" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="3">
-        <v>2</v>
+      <c r="B80">
+        <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>5</v>
@@ -1890,8 +1885,8 @@
       <c r="A81" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="3">
-        <v>2</v>
+      <c r="B81">
+        <v>1</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>5</v>
@@ -1905,8 +1900,8 @@
       <c r="A82" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="3">
-        <v>2</v>
+      <c r="B82">
+        <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>5</v>
@@ -1920,8 +1915,8 @@
       <c r="A83" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="3">
-        <v>2</v>
+      <c r="B83">
+        <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>5</v>
@@ -1935,8 +1930,8 @@
       <c r="A84" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="3">
-        <v>2</v>
+      <c r="B84">
+        <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>5</v>
@@ -1950,8 +1945,8 @@
       <c r="A85" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="3">
-        <v>2</v>
+      <c r="B85">
+        <v>1</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>5</v>
@@ -1965,8 +1960,8 @@
       <c r="A86" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="3">
-        <v>2</v>
+      <c r="B86">
+        <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>5</v>
